--- a/Data/Temporal/Carta Porte12.05.2021.xlsx
+++ b/Data/Temporal/Carta Porte12.05.2021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Org.Compras</t>
   </si>
@@ -112,16 +112,31 @@
     <t>CI_EBANDB-ZZKOSTL</t>
   </si>
   <si>
-    <t>ter</t>
-  </si>
-  <si>
-    <t>tr</t>
-  </si>
-  <si>
-    <t>Traslado de valores</t>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>TRV</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Traslado de Valores</t>
   </si>
   <si>
     <t>SER</t>
+  </si>
+  <si>
+    <t>0491</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>0.05</t>
   </si>
 </sst>
 </file>
@@ -185,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -216,6 +231,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -541,50 +559,50 @@
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11">
-        <v>3564.0</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="11">
-        <v>54.0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>23.0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>12.0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="C3" s="12">
+        <v>112.0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>102348.0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="11">
+      <c r="G3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="12">
         <v>1.0</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="11">
-        <v>23.0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>32342.0</v>
-      </c>
-      <c r="M3" s="11">
-        <v>2324.0</v>
-      </c>
-      <c r="N3" s="11">
-        <v>2.431124234E9</v>
-      </c>
-      <c r="O3" s="11">
-        <v>34233.0</v>
-      </c>
-      <c r="P3" s="11">
-        <v>3421.0</v>
+      <c r="J3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="12">
+        <v>7.81018E7</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="12">
+        <v>3000080.0</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="12">
+        <v>8.200491003E9</v>
       </c>
     </row>
   </sheetData>
